--- a/Code/Results/Cases/Case_2_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_206/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.425450764094819</v>
+        <v>0.8348711254667478</v>
       </c>
       <c r="C2">
-        <v>0.5686333839362874</v>
+        <v>0.1785891783858062</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8319482819943289</v>
+        <v>0.7014026851532833</v>
       </c>
       <c r="F2">
-        <v>2.090569242504642</v>
+        <v>2.176445243774708</v>
       </c>
       <c r="G2">
-        <v>0.0007784046510255007</v>
+        <v>0.002396020092976672</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02471608086624499</v>
+        <v>0.03521534918287372</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7036810250679082</v>
+        <v>0.9216694069279399</v>
       </c>
       <c r="O2">
-        <v>1.29123241399418</v>
+        <v>1.810967972140645</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.107454271842755</v>
+        <v>0.7391490095976678</v>
       </c>
       <c r="C3">
-        <v>0.4990502322156658</v>
+        <v>0.1566257893278475</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7326780326855555</v>
+        <v>0.6791758076272032</v>
       </c>
       <c r="F3">
-        <v>1.870116092523972</v>
+        <v>2.138205154504504</v>
       </c>
       <c r="G3">
-        <v>0.0007828194746627892</v>
+        <v>0.002398877058978348</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02294444068016332</v>
+        <v>0.0352231411797348</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7045543105546841</v>
+        <v>0.9242007500163467</v>
       </c>
       <c r="O3">
-        <v>1.198268016663548</v>
+        <v>1.810156988755779</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.912684194431307</v>
+        <v>0.6803475639880503</v>
       </c>
       <c r="C4">
-        <v>0.4563370773235249</v>
+        <v>0.1430772084721355</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6726691214184228</v>
+        <v>0.6658572043273665</v>
       </c>
       <c r="F4">
-        <v>1.738536515741828</v>
+        <v>2.116129426700311</v>
       </c>
       <c r="G4">
-        <v>0.000785611618178055</v>
+        <v>0.002400723590129268</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02194159381237171</v>
+        <v>0.03525915057788964</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7060653881210257</v>
+        <v>0.9261773227715366</v>
       </c>
       <c r="O4">
-        <v>1.14535217946181</v>
+        <v>1.811245508458654</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.833400410775226</v>
+        <v>0.6563796632466676</v>
       </c>
       <c r="C5">
-        <v>0.4389276045713189</v>
+        <v>0.1375404988565094</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6484260355257589</v>
+        <v>0.6605123533261832</v>
       </c>
       <c r="F5">
-        <v>1.685781387811303</v>
+        <v>2.107485502354606</v>
       </c>
       <c r="G5">
-        <v>0.0007867704466920824</v>
+        <v>0.002401499358837475</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02155266293357627</v>
+        <v>0.03528164557470959</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7069170717678404</v>
+        <v>0.9270891722305521</v>
       </c>
       <c r="O5">
-        <v>1.12475933754817</v>
+        <v>1.812086678995087</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.820239669880635</v>
+        <v>0.6523994925233865</v>
       </c>
       <c r="C6">
-        <v>0.4360363869186301</v>
+        <v>0.1366202014124269</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6444125051336158</v>
+        <v>0.6596298305090471</v>
       </c>
       <c r="F6">
-        <v>1.677071259096067</v>
+        <v>2.106071426192401</v>
       </c>
       <c r="G6">
-        <v>0.0007869641530908976</v>
+        <v>0.002401629583651165</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02148922777790219</v>
+        <v>0.03528585231024906</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7070724820339365</v>
+        <v>0.9272470147849674</v>
       </c>
       <c r="O6">
-        <v>1.121396395091864</v>
+        <v>1.812250329004627</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.911614638657142</v>
+        <v>0.6800243466237532</v>
       </c>
       <c r="C7">
-        <v>0.4561023093293102</v>
+        <v>0.1430026010680763</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6723413494812007</v>
+        <v>0.6657847875178931</v>
       </c>
       <c r="F7">
-        <v>1.737821650088989</v>
+        <v>2.11601142720518</v>
       </c>
       <c r="G7">
-        <v>0.0007856271608041586</v>
+        <v>0.002400733958075052</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02193627071125448</v>
+        <v>0.03525942232734636</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7060759308375992</v>
+        <v>0.9261891893168723</v>
       </c>
       <c r="O7">
-        <v>1.145070624263212</v>
+        <v>1.81125524473569</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.315684216968179</v>
+        <v>0.8018725291921669</v>
       </c>
       <c r="C8">
-        <v>0.5446348097389944</v>
+        <v>0.1710294336165532</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7975076949648638</v>
+        <v>0.6936705548392155</v>
       </c>
       <c r="F8">
-        <v>2.013719056436102</v>
+        <v>2.162968136342329</v>
       </c>
       <c r="G8">
-        <v>0.0007799103131342629</v>
+        <v>0.002396986052480938</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02408657913510126</v>
+        <v>0.03521153635321639</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7037740639016832</v>
+        <v>0.9224546692546838</v>
       </c>
       <c r="O8">
-        <v>1.258266445014613</v>
+        <v>1.810358260539743</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.113592614630079</v>
+        <v>1.040559259704651</v>
       </c>
       <c r="C9">
-        <v>0.7186555026549684</v>
+        <v>0.2254805349040225</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.051741332025671</v>
+        <v>0.7509709673787484</v>
       </c>
       <c r="F9">
-        <v>2.588945109685937</v>
+        <v>2.266237232146921</v>
       </c>
       <c r="G9">
-        <v>0.0007693198361492143</v>
+        <v>0.002390365826676383</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02905616338677319</v>
+        <v>0.03536684102229515</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7074415886821868</v>
+        <v>0.9184750972379021</v>
       </c>
       <c r="O9">
-        <v>1.516986939950101</v>
+        <v>1.821250729563388</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.705826564503525</v>
+        <v>1.215732709115741</v>
       </c>
       <c r="C10">
-        <v>0.8472584747377141</v>
+        <v>0.2651658704042461</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.245879237101249</v>
+        <v>0.7946807088370207</v>
       </c>
       <c r="F10">
-        <v>3.038810488325851</v>
+        <v>2.349007368767587</v>
       </c>
       <c r="G10">
-        <v>0.0007618783086278302</v>
+        <v>0.002385941990619078</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0332851775794154</v>
+        <v>0.03563495965158481</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7157911244730144</v>
+        <v>0.9175817545803824</v>
       </c>
       <c r="O10">
-        <v>1.735026233069846</v>
+        <v>1.837058527708052</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.977205891822734</v>
+        <v>1.295376644269083</v>
       </c>
       <c r="C11">
-        <v>0.9060516802021823</v>
+        <v>0.2831485732936869</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.336295437195005</v>
+        <v>0.8149190803990791</v>
       </c>
       <c r="F11">
-        <v>3.2509694660653</v>
+        <v>2.388177264139017</v>
       </c>
       <c r="G11">
-        <v>0.0007585572334964816</v>
+        <v>0.002384024039469046</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03536375619814436</v>
+        <v>0.03579083397171345</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7209789241517086</v>
+        <v>0.917614755204454</v>
       </c>
       <c r="O11">
-        <v>1.84164540335226</v>
+        <v>1.845964928054457</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.080312298399292</v>
+        <v>1.32552861906737</v>
       </c>
       <c r="C12">
-        <v>0.9283684604283735</v>
+        <v>0.289947808523209</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.370882759281358</v>
+        <v>0.8226340194464541</v>
       </c>
       <c r="F12">
-        <v>3.33253603370099</v>
+        <v>2.403229291704548</v>
       </c>
       <c r="G12">
-        <v>0.0007573079991969323</v>
+        <v>0.00238331127229477</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03617581460429875</v>
+        <v>0.03585477091733225</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7231579042113054</v>
+        <v>0.9176903041238802</v>
       </c>
       <c r="O12">
-        <v>1.88321257640149</v>
+        <v>1.849585777339286</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.058090345126914</v>
+        <v>1.319035202747841</v>
       </c>
       <c r="C13">
-        <v>0.9235595907369998</v>
+        <v>0.2884839400444719</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.363417458888335</v>
+        <v>0.8209701943763719</v>
       </c>
       <c r="F13">
-        <v>3.314912172804242</v>
+        <v>2.399977800808983</v>
       </c>
       <c r="G13">
-        <v>0.0007575766853316623</v>
+        <v>0.002383464179281888</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03599976824062878</v>
+        <v>0.03584078198630891</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7226788370784902</v>
+        <v>0.9176712310589608</v>
       </c>
       <c r="O13">
-        <v>1.874205193560329</v>
+        <v>1.848794900111045</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.98568133397373</v>
+        <v>1.297857421765002</v>
       </c>
       <c r="C14">
-        <v>0.9078865630291375</v>
+        <v>0.2837081611330348</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.339133684875506</v>
+        <v>0.8155527681312833</v>
       </c>
       <c r="F14">
-        <v>3.257654523507171</v>
+        <v>2.389411203618437</v>
       </c>
       <c r="G14">
-        <v>0.0007584542952400149</v>
+        <v>0.00238396512920607</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03543004846011399</v>
+        <v>0.03579599548269385</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7211538036326886</v>
+        <v>0.9176197077243842</v>
       </c>
       <c r="O14">
-        <v>1.845040502764391</v>
+        <v>1.84625783469744</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.941374935054114</v>
+        <v>1.28488441241791</v>
       </c>
       <c r="C15">
-        <v>0.8982936454739274</v>
+        <v>0.2807814920484475</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.324306044402888</v>
+        <v>0.8122410973186902</v>
       </c>
       <c r="F15">
-        <v>3.222746889415447</v>
+        <v>2.382967440239526</v>
       </c>
       <c r="G15">
-        <v>0.0007589929226226217</v>
+        <v>0.002384273734255774</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03508441150676944</v>
+        <v>0.03576920302153042</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7202480624298317</v>
+        <v>0.9175963556905344</v>
       </c>
       <c r="O15">
-        <v>1.827335502357982</v>
+        <v>1.844736175632391</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.688135726140672</v>
+        <v>1.210526813813658</v>
       </c>
       <c r="C16">
-        <v>0.8434229892931455</v>
+        <v>0.263989216458981</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.24001647472646</v>
+        <v>0.7933652288596278</v>
       </c>
       <c r="F16">
-        <v>3.025108745199617</v>
+        <v>2.346478146032894</v>
       </c>
       <c r="G16">
-        <v>0.000762096569168782</v>
+        <v>0.002386069228633029</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03315267622103235</v>
+        <v>0.03562545816875584</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7154812773889603</v>
+        <v>0.9175884281480364</v>
       </c>
       <c r="O16">
-        <v>1.72821832511184</v>
+        <v>1.83651112091988</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.533325424601117</v>
+        <v>1.164898862059772</v>
       </c>
       <c r="C17">
-        <v>0.8098437806368963</v>
+        <v>0.2536694605343257</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.188877363859703</v>
+        <v>0.7818763962730486</v>
       </c>
       <c r="F17">
-        <v>2.905887872124595</v>
+        <v>2.32448251553302</v>
       </c>
       <c r="G17">
-        <v>0.0007640164053551075</v>
+        <v>0.002387194855894241</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03200909634190197</v>
+        <v>0.03554598439107082</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.712922973115738</v>
+        <v>0.9176960070362838</v>
       </c>
       <c r="O17">
-        <v>1.669401494742488</v>
+        <v>1.831905742178321</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.444464205359907</v>
+        <v>1.138650863731527</v>
       </c>
       <c r="C18">
-        <v>0.7905565662390188</v>
+        <v>0.2477272059463473</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.159658277409122</v>
+        <v>0.7753016921502507</v>
       </c>
       <c r="F18">
-        <v>2.838012753002033</v>
+        <v>2.311973967180876</v>
       </c>
       <c r="G18">
-        <v>0.0007651267330681167</v>
+        <v>0.002387851183581014</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03136573267847353</v>
+        <v>0.0355034624462931</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7115813511358482</v>
+        <v>0.9177992481164097</v>
       </c>
       <c r="O18">
-        <v>1.636263083970078</v>
+        <v>1.829418216073805</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.414406836325327</v>
+        <v>1.129763091590576</v>
       </c>
       <c r="C19">
-        <v>0.7840305027826844</v>
+        <v>0.2457141357990622</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.149797316815224</v>
+        <v>0.7730813378747996</v>
       </c>
       <c r="F19">
-        <v>2.815146994301614</v>
+        <v>2.307763274511046</v>
       </c>
       <c r="G19">
-        <v>0.0007655037409060237</v>
+        <v>0.002388074934839501</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03115029499815947</v>
+        <v>0.03548961193845912</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.711148974541203</v>
+        <v>0.9178413122768632</v>
       </c>
       <c r="O19">
-        <v>1.625158147393194</v>
+        <v>1.828603650889733</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.549786052370848</v>
+        <v>1.169756459030054</v>
       </c>
       <c r="C20">
-        <v>0.8134155082137795</v>
+        <v>0.2547687018826821</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.19430073056148</v>
+        <v>0.7830959477640249</v>
       </c>
       <c r="F20">
-        <v>2.918505928903187</v>
+        <v>2.326809205629502</v>
       </c>
       <c r="G20">
-        <v>0.0007638114111614044</v>
+        <v>0.002387074110966548</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0321293240544378</v>
+        <v>0.03555411417903542</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.713181767834655</v>
+        <v>0.9176802749710617</v>
       </c>
       <c r="O20">
-        <v>1.675590218294076</v>
+        <v>1.832379280806464</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.006939874292584</v>
+        <v>1.304078061425969</v>
       </c>
       <c r="C21">
-        <v>0.9124885755433922</v>
+        <v>0.285111208511637</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.346256559585655</v>
+        <v>0.8171426095561856</v>
       </c>
       <c r="F21">
-        <v>3.274437954597744</v>
+        <v>2.392508910902649</v>
       </c>
       <c r="G21">
-        <v>0.0007581962994050865</v>
+        <v>0.002383817621621053</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03559668923702475</v>
+        <v>0.03580901680834359</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7215957995108653</v>
+        <v>0.9176331311663262</v>
       </c>
       <c r="O21">
-        <v>1.853573461520767</v>
+        <v>1.846996284383238</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.307734566332783</v>
+        <v>1.391820978220892</v>
       </c>
       <c r="C22">
-        <v>0.9775539779849112</v>
+        <v>0.3048808899370954</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.447626175410292</v>
+        <v>0.8396920191901529</v>
       </c>
       <c r="F22">
-        <v>3.514288482710583</v>
+        <v>2.436725847240751</v>
       </c>
       <c r="G22">
-        <v>0.0007545749299061443</v>
+        <v>0.002381768086897331</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03800965530231792</v>
+        <v>0.03600425025092235</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.728352638096311</v>
+        <v>0.9179697809031921</v>
       </c>
       <c r="O22">
-        <v>1.976914402667632</v>
+        <v>1.857996684322444</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.14698952661206</v>
+        <v>1.344995361530778</v>
       </c>
       <c r="C23">
-        <v>0.9427944602328751</v>
+        <v>0.2943351122909519</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.39331830686838</v>
+        <v>0.8276296727809154</v>
       </c>
       <c r="F23">
-        <v>3.385562029334324</v>
+        <v>2.41300911606794</v>
       </c>
       <c r="G23">
-        <v>0.0007565035870971901</v>
+        <v>0.002382854776599829</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03670741654279652</v>
+        <v>0.03589741830823812</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7246261429121574</v>
+        <v>0.9177565234719651</v>
       </c>
       <c r="O23">
-        <v>1.910398787165747</v>
+        <v>1.851992627832175</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.542343766783006</v>
+        <v>1.167560388815048</v>
       </c>
       <c r="C24">
-        <v>0.8118006751916766</v>
+        <v>0.2542717637853684</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.191848264682349</v>
+        <v>0.7825444939180528</v>
       </c>
       <c r="F24">
-        <v>2.912799240149724</v>
+        <v>2.32575688225765</v>
       </c>
       <c r="G24">
-        <v>0.0007639040684265797</v>
+        <v>0.002387128671180684</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03207492540092005</v>
+        <v>0.03555042883520798</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.71306436546584</v>
+        <v>0.91768725848803</v>
       </c>
       <c r="O24">
-        <v>1.672790199506011</v>
+        <v>1.832164695182797</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.896886332022575</v>
+        <v>0.9760191364376851</v>
       </c>
       <c r="C25">
-        <v>0.6714856952843036</v>
+        <v>0.2108055782981921</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.9818294677936024</v>
+        <v>0.7351879291411763</v>
       </c>
       <c r="F25">
-        <v>2.429044221235117</v>
+        <v>2.237094481008256</v>
       </c>
       <c r="G25">
-        <v>0.0007721222738180582</v>
+        <v>0.002392079164823421</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0276194897479165</v>
+        <v>0.03529793169244044</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.705507693018248</v>
+        <v>0.9191945551233829</v>
       </c>
       <c r="O25">
-        <v>1.442515625796659</v>
+        <v>1.816940060925674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_206/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8348711254667478</v>
+        <v>2.425450764094592</v>
       </c>
       <c r="C2">
-        <v>0.1785891783858062</v>
+        <v>0.5686333839363158</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7014026851532833</v>
+        <v>0.8319482819943289</v>
       </c>
       <c r="F2">
-        <v>2.176445243774708</v>
+        <v>2.090569242504628</v>
       </c>
       <c r="G2">
-        <v>0.002396020092976672</v>
+        <v>0.000778404651082633</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03521534918287372</v>
+        <v>0.02471608086624144</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9216694069279399</v>
+        <v>0.7036810250679082</v>
       </c>
       <c r="O2">
-        <v>1.810967972140645</v>
+        <v>1.29123241399418</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7391490095976678</v>
+        <v>2.107454271842755</v>
       </c>
       <c r="C3">
-        <v>0.1566257893278475</v>
+        <v>0.4990502322153247</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6791758076272032</v>
+        <v>0.732678032685584</v>
       </c>
       <c r="F3">
-        <v>2.138205154504504</v>
+        <v>1.870116092523958</v>
       </c>
       <c r="G3">
-        <v>0.002398877058978348</v>
+        <v>0.0007828194746055603</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0352231411797348</v>
+        <v>0.02294444068012425</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9242007500163467</v>
+        <v>0.7045543105546912</v>
       </c>
       <c r="O3">
-        <v>1.810156988755779</v>
+        <v>1.198268016663519</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6803475639880503</v>
+        <v>1.912684194431336</v>
       </c>
       <c r="C4">
-        <v>0.1430772084721355</v>
+        <v>0.4563370773238091</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6658572043273665</v>
+        <v>0.672669121418437</v>
       </c>
       <c r="F4">
-        <v>2.116129426700311</v>
+        <v>1.738536515741828</v>
       </c>
       <c r="G4">
-        <v>0.002400723590129268</v>
+        <v>0.0007856116181392698</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03525915057788964</v>
+        <v>0.02194159381231131</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9261773227715366</v>
+        <v>0.7060653881210186</v>
       </c>
       <c r="O4">
-        <v>1.811245508458654</v>
+        <v>1.14535217946181</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6563796632466676</v>
+        <v>1.833400410775255</v>
       </c>
       <c r="C5">
-        <v>0.1375404988565094</v>
+        <v>0.4389276045708641</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6605123533261832</v>
+        <v>0.6484260355257874</v>
       </c>
       <c r="F5">
-        <v>2.107485502354606</v>
+        <v>1.685781387811303</v>
       </c>
       <c r="G5">
-        <v>0.002401499358837475</v>
+        <v>0.0007867704466915648</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03528164557470959</v>
+        <v>0.02155266293356561</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9270891722305521</v>
+        <v>0.7069170717677693</v>
       </c>
       <c r="O5">
-        <v>1.812086678995087</v>
+        <v>1.12475933754817</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6523994925233865</v>
+        <v>1.820239669880635</v>
       </c>
       <c r="C6">
-        <v>0.1366202014124269</v>
+        <v>0.4360363869185448</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6596298305090471</v>
+        <v>0.64441250513363</v>
       </c>
       <c r="F6">
-        <v>2.106071426192401</v>
+        <v>1.677071259096067</v>
       </c>
       <c r="G6">
-        <v>0.002401629583651165</v>
+        <v>0.0007869641530715215</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03528585231024906</v>
+        <v>0.02148922777784534</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9272470147849674</v>
+        <v>0.7070724820339152</v>
       </c>
       <c r="O6">
-        <v>1.812250329004627</v>
+        <v>1.121396395091921</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6800243466237532</v>
+        <v>1.911614638657113</v>
       </c>
       <c r="C7">
-        <v>0.1430026010680763</v>
+        <v>0.4561023093291396</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6657847875178931</v>
+        <v>0.6723413494811723</v>
       </c>
       <c r="F7">
-        <v>2.11601142720518</v>
+        <v>1.737821650089003</v>
       </c>
       <c r="G7">
-        <v>0.002400733958075052</v>
+        <v>0.000785627160902809</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03525942232734636</v>
+        <v>0.02193627071120829</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9261891893168723</v>
+        <v>0.7060759308375992</v>
       </c>
       <c r="O7">
-        <v>1.81125524473569</v>
+        <v>1.145070624263241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8018725291921669</v>
+        <v>2.315684216968066</v>
       </c>
       <c r="C8">
-        <v>0.1710294336165532</v>
+        <v>0.5446348097387954</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6936705548392155</v>
+        <v>0.7975076949648781</v>
       </c>
       <c r="F8">
-        <v>2.162968136342329</v>
+        <v>2.013719056436116</v>
       </c>
       <c r="G8">
-        <v>0.002396986052480938</v>
+        <v>0.0007799103131339858</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03521153635321639</v>
+        <v>0.02408657913509415</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9224546692546838</v>
+        <v>0.7037740639016761</v>
       </c>
       <c r="O8">
-        <v>1.810358260539743</v>
+        <v>1.258266445014584</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.040559259704651</v>
+        <v>3.113592614630022</v>
       </c>
       <c r="C9">
-        <v>0.2254805349040225</v>
+        <v>0.7186555026552242</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7509709673787484</v>
+        <v>1.051741332025657</v>
       </c>
       <c r="F9">
-        <v>2.266237232146921</v>
+        <v>2.588945109685937</v>
       </c>
       <c r="G9">
-        <v>0.002390365826676383</v>
+        <v>0.0007693198361491158</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03536684102229515</v>
+        <v>0.02905616338682293</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9184750972379021</v>
+        <v>0.7074415886821726</v>
       </c>
       <c r="O9">
-        <v>1.821250729563388</v>
+        <v>1.516986939950044</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.215732709115741</v>
+        <v>3.705826564503582</v>
       </c>
       <c r="C10">
-        <v>0.2651658704042461</v>
+        <v>0.8472584747379699</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7946807088370207</v>
+        <v>1.245879237101278</v>
       </c>
       <c r="F10">
-        <v>2.349007368767587</v>
+        <v>3.038810488325851</v>
       </c>
       <c r="G10">
-        <v>0.002385941990619078</v>
+        <v>0.0007618783086570112</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03563495965158481</v>
+        <v>0.03328517757942251</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9175817545803824</v>
+        <v>0.7157911244730286</v>
       </c>
       <c r="O10">
-        <v>1.837058527708052</v>
+        <v>1.735026233069789</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.295376644269083</v>
+        <v>3.977205891822507</v>
       </c>
       <c r="C11">
-        <v>0.2831485732936869</v>
+        <v>0.9060516802019549</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.8149190803990791</v>
+        <v>1.33629543719502</v>
       </c>
       <c r="F11">
-        <v>2.388177264139017</v>
+        <v>3.250969466065357</v>
       </c>
       <c r="G11">
-        <v>0.002384024039469046</v>
+        <v>0.0007585572335803665</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03579083397171345</v>
+        <v>0.03536375619807686</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.917614755204454</v>
+        <v>0.7209789241517797</v>
       </c>
       <c r="O11">
-        <v>1.845964928054457</v>
+        <v>1.841645403352317</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.32552861906737</v>
+        <v>4.080312298399122</v>
       </c>
       <c r="C12">
-        <v>0.289947808523209</v>
+        <v>0.9283684604282598</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8226340194464541</v>
+        <v>1.370882759281386</v>
       </c>
       <c r="F12">
-        <v>2.403229291704548</v>
+        <v>3.332536033700961</v>
       </c>
       <c r="G12">
-        <v>0.00238331127229477</v>
+        <v>0.0007573079992520085</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03585477091733225</v>
+        <v>0.03617581460441599</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9176903041238802</v>
+        <v>0.7231579042113054</v>
       </c>
       <c r="O12">
-        <v>1.849585777339286</v>
+        <v>1.883212576401462</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.319035202747841</v>
+        <v>4.058090345127141</v>
       </c>
       <c r="C13">
-        <v>0.2884839400444719</v>
+        <v>0.9235595907371419</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8209701943763719</v>
+        <v>1.363417458888378</v>
       </c>
       <c r="F13">
-        <v>2.399977800808983</v>
+        <v>3.314912172804242</v>
       </c>
       <c r="G13">
-        <v>0.002383464179281888</v>
+        <v>0.0007575766853868959</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03584078198630891</v>
+        <v>0.03599976824050444</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9176712310589608</v>
+        <v>0.7226788370784334</v>
       </c>
       <c r="O13">
-        <v>1.848794900111045</v>
+        <v>1.874205193560329</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.297857421765002</v>
+        <v>3.985681333973503</v>
       </c>
       <c r="C14">
-        <v>0.2837081611330348</v>
+        <v>0.9078865630288817</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.8155527681312833</v>
+        <v>1.339133684875492</v>
       </c>
       <c r="F14">
-        <v>2.389411203618437</v>
+        <v>3.257654523507171</v>
       </c>
       <c r="G14">
-        <v>0.00238396512920607</v>
+        <v>0.0007584542952967411</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03579599548269385</v>
+        <v>0.03543004846006781</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9176197077243842</v>
+        <v>0.7211538036327454</v>
       </c>
       <c r="O14">
-        <v>1.84625783469744</v>
+        <v>1.845040502764306</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.28488441241791</v>
+        <v>3.941374935054171</v>
       </c>
       <c r="C15">
-        <v>0.2807814920484475</v>
+        <v>0.8982936454740695</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8122410973186902</v>
+        <v>1.324306044402888</v>
       </c>
       <c r="F15">
-        <v>2.382967440239526</v>
+        <v>3.222746889415475</v>
       </c>
       <c r="G15">
-        <v>0.002384273734255774</v>
+        <v>0.0007589929225675036</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03576920302153042</v>
+        <v>0.0350844115067801</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9175963556905344</v>
+        <v>0.7202480624298317</v>
       </c>
       <c r="O15">
-        <v>1.844736175632391</v>
+        <v>1.827335502357982</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.210526813813658</v>
+        <v>3.688135726140672</v>
       </c>
       <c r="C16">
-        <v>0.263989216458981</v>
+        <v>0.8434229892928329</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7933652288596278</v>
+        <v>1.24001647472646</v>
       </c>
       <c r="F16">
-        <v>2.346478146032894</v>
+        <v>3.02510874519956</v>
       </c>
       <c r="G16">
-        <v>0.002386069228633029</v>
+        <v>0.0007620965691430826</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03562545816875584</v>
+        <v>0.03315267622109275</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9175884281480364</v>
+        <v>0.7154812773889034</v>
       </c>
       <c r="O16">
-        <v>1.83651112091988</v>
+        <v>1.72821832511184</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.164898862059772</v>
+        <v>3.533325424601117</v>
       </c>
       <c r="C17">
-        <v>0.2536694605343257</v>
+        <v>0.8098437806366121</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7818763962730486</v>
+        <v>1.188877363859675</v>
       </c>
       <c r="F17">
-        <v>2.32448251553302</v>
+        <v>2.905887872124595</v>
       </c>
       <c r="G17">
-        <v>0.002387194855894241</v>
+        <v>0.0007640164053522317</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03554598439107082</v>
+        <v>0.03200909634202276</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9176960070362838</v>
+        <v>0.7129229731157238</v>
       </c>
       <c r="O17">
-        <v>1.831905742178321</v>
+        <v>1.669401494742516</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.138650863731527</v>
+        <v>3.444464205360077</v>
       </c>
       <c r="C18">
-        <v>0.2477272059463473</v>
+        <v>0.790556566238962</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7753016921502507</v>
+        <v>1.159658277409108</v>
       </c>
       <c r="F18">
-        <v>2.311973967180876</v>
+        <v>2.838012753002033</v>
       </c>
       <c r="G18">
-        <v>0.002387851183581014</v>
+        <v>0.0007651267330426521</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0355034624462931</v>
+        <v>0.03136573267846643</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9177992481164097</v>
+        <v>0.7115813511357771</v>
       </c>
       <c r="O18">
-        <v>1.829418216073805</v>
+        <v>1.636263083970135</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.129763091590576</v>
+        <v>3.414406836325327</v>
       </c>
       <c r="C19">
-        <v>0.2457141357990622</v>
+        <v>0.7840305027829118</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7730813378747996</v>
+        <v>1.149797316815253</v>
       </c>
       <c r="F19">
-        <v>2.307763274511046</v>
+        <v>2.815146994301642</v>
       </c>
       <c r="G19">
-        <v>0.002388074934839501</v>
+        <v>0.00076550374093325</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03548961193845912</v>
+        <v>0.03115029499821276</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9178413122768632</v>
+        <v>0.7111489745411745</v>
       </c>
       <c r="O19">
-        <v>1.828603650889733</v>
+        <v>1.625158147393222</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.169756459030054</v>
+        <v>3.549786052371019</v>
       </c>
       <c r="C20">
-        <v>0.2547687018826821</v>
+        <v>0.8134155082137227</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.7830959477640249</v>
+        <v>1.194300730561423</v>
       </c>
       <c r="F20">
-        <v>2.326809205629502</v>
+        <v>2.918505928903215</v>
       </c>
       <c r="G20">
-        <v>0.002387074110966548</v>
+        <v>0.0007638114111347853</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03555411417903542</v>
+        <v>0.03212932405449465</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9176802749710617</v>
+        <v>0.7131817678347261</v>
       </c>
       <c r="O20">
-        <v>1.832379280806464</v>
+        <v>1.675590218294076</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.304078061425969</v>
+        <v>4.006939874292698</v>
       </c>
       <c r="C21">
-        <v>0.285111208511637</v>
+        <v>0.9124885755436765</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.8171426095561856</v>
+        <v>1.346256559585655</v>
       </c>
       <c r="F21">
-        <v>2.392508910902649</v>
+        <v>3.274437954597744</v>
       </c>
       <c r="G21">
-        <v>0.002383817621621053</v>
+        <v>0.0007581962994343037</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03580901680834359</v>
+        <v>0.03559668923698212</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9176331311663262</v>
+        <v>0.7215957995108795</v>
       </c>
       <c r="O21">
-        <v>1.846996284383238</v>
+        <v>1.853573461520767</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.391820978220892</v>
+        <v>4.307734566332556</v>
       </c>
       <c r="C22">
-        <v>0.3048808899370954</v>
+        <v>0.9775539779849112</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8396920191901529</v>
+        <v>1.447626175410264</v>
       </c>
       <c r="F22">
-        <v>2.436725847240751</v>
+        <v>3.514288482710555</v>
       </c>
       <c r="G22">
-        <v>0.002381768086897331</v>
+        <v>0.0007545749298783828</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03600425025092235</v>
+        <v>0.03800965530238898</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9179697809031921</v>
+        <v>0.728352638096311</v>
       </c>
       <c r="O22">
-        <v>1.857996684322444</v>
+        <v>1.976914402667632</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.344995361530778</v>
+        <v>4.146989526612174</v>
       </c>
       <c r="C23">
-        <v>0.2943351122909519</v>
+        <v>0.9427944602329887</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.8276296727809154</v>
+        <v>1.393318306868352</v>
       </c>
       <c r="F23">
-        <v>2.41300911606794</v>
+        <v>3.385562029334295</v>
       </c>
       <c r="G23">
-        <v>0.002382854776599829</v>
+        <v>0.0007565035870411931</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03589741830823812</v>
+        <v>0.03670741654288179</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9177565234719651</v>
+        <v>0.7246261429121574</v>
       </c>
       <c r="O23">
-        <v>1.851992627832175</v>
+        <v>1.910398787165832</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.167560388815048</v>
+        <v>3.542343766783176</v>
       </c>
       <c r="C24">
-        <v>0.2542717637853684</v>
+        <v>0.811800675192103</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7825444939180528</v>
+        <v>1.191848264682406</v>
       </c>
       <c r="F24">
-        <v>2.32575688225765</v>
+        <v>2.912799240149752</v>
       </c>
       <c r="G24">
-        <v>0.002387128671180684</v>
+        <v>0.00076390406845179</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03555042883520798</v>
+        <v>0.03207492540092005</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.91768725848803</v>
+        <v>0.7130643654658968</v>
       </c>
       <c r="O24">
-        <v>1.832164695182797</v>
+        <v>1.672790199505982</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9760191364376851</v>
+        <v>2.896886332022518</v>
       </c>
       <c r="C25">
-        <v>0.2108055782981921</v>
+        <v>0.6714856952845878</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7351879291411763</v>
+        <v>0.9818294677935739</v>
       </c>
       <c r="F25">
-        <v>2.237094481008256</v>
+        <v>2.429044221235074</v>
       </c>
       <c r="G25">
-        <v>0.002392079164823421</v>
+        <v>0.0007721222738172144</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03529793169244044</v>
+        <v>0.02761948974796979</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9191945551233829</v>
+        <v>0.705507693018248</v>
       </c>
       <c r="O25">
-        <v>1.816940060925674</v>
+        <v>1.442515625796716</v>
       </c>
     </row>
   </sheetData>
